--- a/Documents/DA.5_KH_DzoanXuanThanh.xlsx
+++ b/Documents/DA.5_KH_DzoanXuanThanh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dacntt2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAD192-C85F-4A87-8F89-6F777AD5D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3077B-7681-4731-B69A-C74A36B3D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>A.</t>
   </si>
@@ -104,13 +96,6 @@
       </rPr>
       <t>KHOA CÔNG NGHỆ THÔNG TIN</t>
     </r>
-  </si>
-  <si>
-    <t>-
--….</t>
-  </si>
-  <si>
-    <t>..%</t>
   </si>
   <si>
     <t>XÁC NHẬN CỦA GIẢNG VIÊN HƯỚNG DẪN</t>
@@ -224,6 +209,65 @@
   </si>
   <si>
     <t xml:space="preserve">Số ĐT: </t>
+  </si>
+  <si>
+    <t>- Vẽ các sơ đồ usecase
+- Đặc tả các usecase, đặc tả hệ thống</t>
+  </si>
+  <si>
+    <t>- Xác minh các tác nhân trong hệ thống
+- Phân tích hệ thống
+- Thiết kế hệ thống</t>
+  </si>
+  <si>
+    <t>- Xác thực người dùng bằng JWT và refresh token, xác thực sinh viên bằng Google OAuth2.0
+- Định danh, phân quyền người dùng</t>
+  </si>
+  <si>
+    <t>- Thiết kế trang: Tạo tài khoản, danh sách tài khoản, vô hiệu hóa tài khoản, đăng nhập, quên mật khẩu, đổi mật khẩu
+- Thiết kế các pop-up cho trang quản lý tài khoản.</t>
+  </si>
+  <si>
+    <t>- Thiết kế trang: Quản lý doanh nghiệp, quản lý thông tin doanh nghiệp, xem hồ sơ các ứng viên bật tìm kiếm việc
+- Quản lý các công ty, quản lý các tài khoản của từng công ty.</t>
+  </si>
+  <si>
+    <t>- Thiết kế trang quản lý các bài viết tuyển dụng.
+- Thiết kế giao diện của bài viết khi xem</t>
+  </si>
+  <si>
+    <t>- Cho phép sinh viên chỉnh sửa thông tin cá nhân, đăng tải các file CV, chỉnh sửa thư giới thiệu
+- Cho phép sinh viên tạo CV từ thông tin đã chỉnh sửa.</t>
+  </si>
+  <si>
+    <t>- Thiết kế lại các component hỗ trợ in thông tin các bảng ra excel
+- Thiết kế trang báo cáo cho tài khoản phòng khoa, vẽ biểu đồ thống kê</t>
+  </si>
+  <si>
+    <t>- Kiểm thử phần mềm
+- Thiết kế tự động triển khai với GitHub Actions, Netlify.
+- Thực hiện báo cáo</t>
+  </si>
+  <si>
+    <t>- Thiết kế các Email và gửi Email theo mẫu đã được thiết kế sẵn
+- Tiếp tục quá trình kiểm thử.
+- Thực hiện báo cáo</t>
+  </si>
+  <si>
+    <t>- Thực hiện báo cáo
+- Thiết kế slide thuyết trình</t>
+  </si>
+  <si>
+    <t>- Triển khai dự án lên Google Cloud Platform và Netlify
+- Xem lại báo cáo và mã nguồn</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>- Thiết lậo cơ sở dự liệu với My SQL, kết nối cơ sở dữ liệu với ứng dụng (Code first).
+- Thiết kế cấu trúc source code ASP.NET core theo kiến trúc Onion
+- Thiết kế cấu trúc source code cho phần React</t>
   </si>
 </sst>
 </file>
@@ -357,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -824,7 +871,7 @@
     </row>
     <row r="2" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -857,7 +904,7 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -866,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -879,7 +926,7 @@
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -888,10 +935,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -907,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -921,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -932,7 +979,7 @@
         <v>44858</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -958,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -972,13 +1019,13 @@
         <v>44864</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1001,7 +1048,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1015,13 +1062,13 @@
         <v>44871</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1044,7 +1091,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -1058,13 +1105,13 @@
         <v>44878</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1087,7 +1134,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -1101,13 +1148,13 @@
         <v>44885</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1130,7 +1177,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -1144,13 +1191,13 @@
         <v>44892</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1173,7 +1220,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="132" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -1187,13 +1234,13 @@
         <v>44899</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1255,7 +1302,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -1269,13 +1316,13 @@
         <v>44913</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1298,7 +1345,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="99" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -1312,13 +1359,13 @@
         <v>44920</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1341,7 +1388,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="99" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -1355,13 +1402,13 @@
         <v>44927</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1384,7 +1431,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>11</v>
       </c>
@@ -1398,13 +1445,13 @@
         <v>44934</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1427,7 +1474,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>12</v>
       </c>
@@ -1441,13 +1488,13 @@
         <v>44941</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1484,13 +1531,13 @@
         <v>44948</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1513,7 +1560,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -1527,13 +1574,13 @@
         <v>44955</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1570,7 +1617,7 @@
         <v>44962</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1609,7 +1656,7 @@
         <v>44969</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -1636,17 +1683,17 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
